--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3401.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3401.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.713769936158216</v>
+        <v>1.514003396034241</v>
       </c>
       <c r="B1">
-        <v>1.875311180648504</v>
+        <v>6.474394798278809</v>
       </c>
       <c r="C1">
-        <v>1.997592297096274</v>
+        <v>3.475831747055054</v>
       </c>
       <c r="D1">
-        <v>2.724519571132651</v>
+        <v>1.550420522689819</v>
       </c>
       <c r="E1">
-        <v>4.588046487646521</v>
+        <v>1.091705560684204</v>
       </c>
     </row>
   </sheetData>
